--- a/biology/Histoire de la zoologie et de la botanique/Sergueï_Tchernov/Sergueï_Tchernov.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sergueï_Tchernov/Sergueï_Tchernov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Tchernov</t>
+          <t>Sergueï_Tchernov</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sergueï Aleksandrovitch Tchernov (en russe : Сергей Александрович Чернов) est un herpétologiste soviétique, né le 28 juillet 1903 à Kharkov en actuelle Ukraine et mort le 2 janvier 1964 à Léningrad.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Tchernov</t>
+          <t>Sergueï_Tchernov</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à l’université de Karkhov notamment auprès d’Alexandre Nikolski (1858-1942) jusqu’en 1926. Il devient conservateur du département d’herpétologie du muséum zoologique de l’Académie des sciences de Léningrad en 1930 où il succède à Sergueï Tsarevski. Tchernov étudie la faune de la Transcaspienne (1932), du Caucase (1937-1939) et du Tadjikistan (1942-1944). Parmi ses nombreuses publications, il faut citer le Synopsis des Reptiles et des Amphibiens d'URSS avec Pavel Terentiev (1903-1970), qui connaît trois éditions russes (1936, 1940 et 1949) et est traduit en anglais en 1965. C’est Ilia Darevski (1925-2009), son étudiant, qui lui succède à la tête du département d’herpétologie.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Tchernov</t>
+          <t>Sergueï_Tchernov</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Kraig Adler (1989), Contributions to the History of Herpetology, Society for the study of amphibians and reptiles, 202 p.  (ISBN 0-916984-19-2)
  Portail de l’histoire de la zoologie et de la botanique   Portail de l’herpétologie   Portail de l’URSS                   </t>
